--- a/processing_pipeline/analysis/analyzed_matches/second_iteration.xlsx
+++ b/processing_pipeline/analysis/analyzed_matches/second_iteration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danarapp/Desktop/energypattern-keyword-search/processing_pipeline/analysis/analyzed_matches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F2AB0-75D0-DE45-BFCF-5CC600B1122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FAC503-F9C0-6A46-94FC-356BDFAA55B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="929">
   <si>
     <t>row_id</t>
   </si>
@@ -2825,6 +2825,30 @@
   </si>
   <si>
     <t xml:space="preserve">double match </t>
+  </si>
+  <si>
+    <t>g4_short_circuit</t>
+  </si>
+  <si>
+    <t>does and short circuit</t>
+  </si>
+  <si>
+    <t>g3_early_termination</t>
+  </si>
+  <si>
+    <t>g6_dont_recompute</t>
+  </si>
+  <si>
+    <t>price/tax calculation problem</t>
+  </si>
+  <si>
+    <t>price calculation problem</t>
+  </si>
+  <si>
+    <t>fault tolerance</t>
+  </si>
+  <si>
+    <t>very relevant but no code</t>
   </si>
 </sst>
 </file>
@@ -14515,8 +14539,8 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15969,7 +15993,7 @@
         <v>https://github.com/zulip/zulip/pull/30692</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>561</v>
       </c>
@@ -15987,7 +16011,7 @@
         <v>https://github.com/netbox-community/netbox/releases/tag/v4.1.0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>562</v>
       </c>
@@ -16005,7 +16029,7 @@
         <v>https://github.com/netbox-community/netbox/releases/tag/v3.7.7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>563</v>
       </c>
@@ -16023,7 +16047,7 @@
         <v>https://github.com/netbox-community/netbox/releases/tag/v3.5.4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>564</v>
       </c>
@@ -16041,7 +16065,7 @@
         <v>https://github.com/netbox-community/netbox/releases/tag/v3.3.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>566</v>
       </c>
@@ -16059,7 +16083,7 @@
         <v>https://github.com/paperless-ngx/paperless-ngx/pull/24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>567</v>
       </c>
@@ -16077,7 +16101,7 @@
         <v>https://github.com/paperless-ngx/paperless-ngx/pull/41</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>568</v>
       </c>
@@ -16095,7 +16119,7 @@
         <v>https://github.com/paperless-ngx/paperless-ngx/pull/41</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>569</v>
       </c>
@@ -16113,7 +16137,7 @@
         <v>https://github.com/paperless-ngx/paperless-ngx/pull/41</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>575</v>
       </c>
@@ -16131,7 +16155,7 @@
         <v>https://github.com/paperless-ngx/paperless-ngx/issues/2052</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>618</v>
       </c>
@@ -16148,8 +16172,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/2287", "https://github.com/saleor/saleor/issues/2287")</f>
         <v>https://github.com/saleor/saleor/issues/2287</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>815</v>
+      </c>
+      <c r="H90" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>625</v>
       </c>
@@ -16166,8 +16196,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/4397", "https://github.com/saleor/saleor/issues/4397")</f>
         <v>https://github.com/saleor/saleor/issues/4397</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>815</v>
+      </c>
+      <c r="H91" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>628</v>
       </c>
@@ -16184,8 +16220,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/4653", "https://github.com/saleor/saleor/pull/4653")</f>
         <v>https://github.com/saleor/saleor/pull/4653</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>815</v>
+      </c>
+      <c r="H92" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>635</v>
       </c>
@@ -16202,8 +16244,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/5648", "https://github.com/saleor/saleor/pull/5648")</f>
         <v>https://github.com/saleor/saleor/pull/5648</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>815</v>
+      </c>
+      <c r="H93" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>636</v>
       </c>
@@ -16220,8 +16268,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/6117", "https://github.com/saleor/saleor/pull/6117")</f>
         <v>https://github.com/saleor/saleor/pull/6117</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>815</v>
+      </c>
+      <c r="H94" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>639</v>
       </c>
@@ -16238,8 +16292,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/7663", "https://github.com/saleor/saleor/issues/7663")</f>
         <v>https://github.com/saleor/saleor/issues/7663</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>815</v>
+      </c>
+      <c r="H95" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>640</v>
       </c>
@@ -16256,8 +16316,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/7663", "https://github.com/saleor/saleor/issues/7663")</f>
         <v>https://github.com/saleor/saleor/issues/7663</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>815</v>
+      </c>
+      <c r="H96" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>641</v>
       </c>
@@ -16274,8 +16340,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/11648", "https://github.com/saleor/saleor/pull/11648")</f>
         <v>https://github.com/saleor/saleor/pull/11648</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>815</v>
+      </c>
+      <c r="H97" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>644</v>
       </c>
@@ -16292,8 +16364,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/11887", "https://github.com/saleor/saleor/issues/11887")</f>
         <v>https://github.com/saleor/saleor/issues/11887</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>815</v>
+      </c>
+      <c r="H98" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>645</v>
       </c>
@@ -16310,8 +16388,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/12040", "https://github.com/saleor/saleor/issues/12040")</f>
         <v>https://github.com/saleor/saleor/issues/12040</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>815</v>
+      </c>
+      <c r="H99" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>648</v>
       </c>
@@ -16328,8 +16412,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/12041", "https://github.com/saleor/saleor/pull/12041")</f>
         <v>https://github.com/saleor/saleor/pull/12041</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>815</v>
+      </c>
+      <c r="H100" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>650</v>
       </c>
@@ -16346,8 +16436,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/12108", "https://github.com/saleor/saleor/issues/12108")</f>
         <v>https://github.com/saleor/saleor/issues/12108</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>815</v>
+      </c>
+      <c r="H101" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>651</v>
       </c>
@@ -16364,8 +16460,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/12348", "https://github.com/saleor/saleor/issues/12348")</f>
         <v>https://github.com/saleor/saleor/issues/12348</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>815</v>
+      </c>
+      <c r="H102" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>656</v>
       </c>
@@ -16382,8 +16484,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/12349", "https://github.com/saleor/saleor/pull/12349")</f>
         <v>https://github.com/saleor/saleor/pull/12349</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>815</v>
+      </c>
+      <c r="H103" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>658</v>
       </c>
@@ -16400,8 +16508,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/12539", "https://github.com/saleor/saleor/issues/12539")</f>
         <v>https://github.com/saleor/saleor/issues/12539</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>815</v>
+      </c>
+      <c r="H104" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>661</v>
       </c>
@@ -16418,8 +16532,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/15275", "https://github.com/saleor/saleor/pull/15275")</f>
         <v>https://github.com/saleor/saleor/pull/15275</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>815</v>
+      </c>
+      <c r="H105" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>662</v>
       </c>
@@ -16436,8 +16556,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/15288", "https://github.com/saleor/saleor/pull/15288")</f>
         <v>https://github.com/saleor/saleor/pull/15288</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>815</v>
+      </c>
+      <c r="H106" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>666</v>
       </c>
@@ -16454,8 +16580,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16044", "https://github.com/saleor/saleor/pull/16044")</f>
         <v>https://github.com/saleor/saleor/pull/16044</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>815</v>
+      </c>
+      <c r="H107" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>671</v>
       </c>
@@ -16472,8 +16604,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16410", "https://github.com/saleor/saleor/pull/16410")</f>
         <v>https://github.com/saleor/saleor/pull/16410</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>815</v>
+      </c>
+      <c r="H108" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>672</v>
       </c>
@@ -16490,8 +16628,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16410", "https://github.com/saleor/saleor/pull/16410")</f>
         <v>https://github.com/saleor/saleor/pull/16410</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>815</v>
+      </c>
+      <c r="H109" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>673</v>
       </c>
@@ -16508,8 +16652,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16424", "https://github.com/saleor/saleor/pull/16424")</f>
         <v>https://github.com/saleor/saleor/pull/16424</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>815</v>
+      </c>
+      <c r="H110" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>674</v>
       </c>
@@ -16526,8 +16676,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16425", "https://github.com/saleor/saleor/pull/16425")</f>
         <v>https://github.com/saleor/saleor/pull/16425</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>815</v>
+      </c>
+      <c r="H111" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>675</v>
       </c>
@@ -16544,8 +16700,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16426", "https://github.com/saleor/saleor/pull/16426")</f>
         <v>https://github.com/saleor/saleor/pull/16426</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>815</v>
+      </c>
+      <c r="H112" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>676</v>
       </c>
@@ -16562,8 +16724,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16427", "https://github.com/saleor/saleor/pull/16427")</f>
         <v>https://github.com/saleor/saleor/pull/16427</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>815</v>
+      </c>
+      <c r="H113" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>677</v>
       </c>
@@ -16580,8 +16748,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16428", "https://github.com/saleor/saleor/pull/16428")</f>
         <v>https://github.com/saleor/saleor/pull/16428</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>815</v>
+      </c>
+      <c r="H114" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>678</v>
       </c>
@@ -16598,8 +16772,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16429", "https://github.com/saleor/saleor/pull/16429")</f>
         <v>https://github.com/saleor/saleor/pull/16429</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>815</v>
+      </c>
+      <c r="H115" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>679</v>
       </c>
@@ -16616,8 +16796,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/16430", "https://github.com/saleor/saleor/pull/16430")</f>
         <v>https://github.com/saleor/saleor/pull/16430</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>815</v>
+      </c>
+      <c r="H116" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>681</v>
       </c>
@@ -16634,8 +16820,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/17004", "https://github.com/saleor/saleor/pull/17004")</f>
         <v>https://github.com/saleor/saleor/pull/17004</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>815</v>
+      </c>
+      <c r="H117" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>684</v>
       </c>
@@ -16652,8 +16844,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/17024", "https://github.com/saleor/saleor/pull/17024")</f>
         <v>https://github.com/saleor/saleor/pull/17024</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>815</v>
+      </c>
+      <c r="H118" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>687</v>
       </c>
@@ -16670,8 +16868,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/17031", "https://github.com/saleor/saleor/pull/17031")</f>
         <v>https://github.com/saleor/saleor/pull/17031</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>815</v>
+      </c>
+      <c r="H119" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>700</v>
       </c>
@@ -16688,8 +16892,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/releases/tag/3.20.51", "https://github.com/saleor/saleor/releases/tag/3.20.51")</f>
         <v>https://github.com/saleor/saleor/releases/tag/3.20.51</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>815</v>
+      </c>
+      <c r="H120" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>703</v>
       </c>
@@ -16706,8 +16916,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/releases/tag/3.19.44", "https://github.com/saleor/saleor/releases/tag/3.19.44")</f>
         <v>https://github.com/saleor/saleor/releases/tag/3.19.44</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>815</v>
+      </c>
+      <c r="H121" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>704</v>
       </c>
@@ -16724,8 +16940,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/releases/tag/3.18.12", "https://github.com/saleor/saleor/releases/tag/3.18.12")</f>
         <v>https://github.com/saleor/saleor/releases/tag/3.18.12</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>815</v>
+      </c>
+      <c r="H122" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>706</v>
       </c>
@@ -16742,8 +16964,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/releases/tag/3.12.0", "https://github.com/saleor/saleor/releases/tag/3.12.0")</f>
         <v>https://github.com/saleor/saleor/releases/tag/3.12.0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>815</v>
+      </c>
+      <c r="H123" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>732</v>
       </c>
@@ -16760,8 +16988,14 @@
         <f>HYPERLINK("https://github.com/paperless-ngx/paperless-ngx/pull/10319", "https://github.com/paperless-ngx/paperless-ngx/pull/10319")</f>
         <v>https://github.com/paperless-ngx/paperless-ngx/pull/10319</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>815</v>
+      </c>
+      <c r="H124" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>733</v>
       </c>
@@ -16778,8 +17012,14 @@
         <f>HYPERLINK("https://github.com/paperless-ngx/paperless-ngx/pull/10319", "https://github.com/paperless-ngx/paperless-ngx/pull/10319")</f>
         <v>https://github.com/paperless-ngx/paperless-ngx/pull/10319</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>815</v>
+      </c>
+      <c r="H125" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>748</v>
       </c>
@@ -16796,8 +17036,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/536", "https://github.com/saleor/saleor/issues/536")</f>
         <v>https://github.com/saleor/saleor/issues/536</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>815</v>
+      </c>
+      <c r="H126" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>753</v>
       </c>
@@ -16814,8 +17060,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/1872", "https://github.com/saleor/saleor/issues/1872")</f>
         <v>https://github.com/saleor/saleor/issues/1872</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>815</v>
+      </c>
+      <c r="H127" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>757</v>
       </c>
@@ -16832,8 +17084,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/3808", "https://github.com/saleor/saleor/pull/3808")</f>
         <v>https://github.com/saleor/saleor/pull/3808</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>759</v>
       </c>
@@ -16850,8 +17105,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/5648", "https://github.com/saleor/saleor/pull/5648")</f>
         <v>https://github.com/saleor/saleor/pull/5648</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>761</v>
       </c>
@@ -16868,8 +17126,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/5703", "https://github.com/saleor/saleor/issues/5703")</f>
         <v>https://github.com/saleor/saleor/issues/5703</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>763</v>
       </c>
@@ -16886,8 +17147,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/8463", "https://github.com/saleor/saleor/pull/8463")</f>
         <v>https://github.com/saleor/saleor/pull/8463</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>764</v>
       </c>
@@ -16904,8 +17168,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/8555", "https://github.com/saleor/saleor/pull/8555")</f>
         <v>https://github.com/saleor/saleor/pull/8555</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>766</v>
       </c>
@@ -16922,8 +17189,14 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/12284", "https://github.com/saleor/saleor/pull/12284")</f>
         <v>https://github.com/saleor/saleor/pull/12284</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>815</v>
+      </c>
+      <c r="H133" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>774</v>
       </c>
@@ -16940,8 +17213,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/13064", "https://github.com/saleor/saleor/issues/13064")</f>
         <v>https://github.com/saleor/saleor/issues/13064</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>780</v>
       </c>
@@ -16958,8 +17234,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/pull/14846", "https://github.com/saleor/saleor/pull/14846")</f>
         <v>https://github.com/saleor/saleor/pull/14846</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>781</v>
       </c>
@@ -16976,8 +17255,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/issues/16273", "https://github.com/saleor/saleor/issues/16273")</f>
         <v>https://github.com/saleor/saleor/issues/16273</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>787</v>
       </c>
@@ -16994,8 +17276,11 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/982", "https://github.com/netbox-community/netbox/issues/982")</f>
         <v>https://github.com/netbox-community/netbox/issues/982</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>790</v>
       </c>
@@ -17008,12 +17293,15 @@
       <c r="D138" t="s">
         <v>10</v>
       </c>
-      <c r="E138" t="str">
+      <c r="E138" s="3" t="str">
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/1099", "https://github.com/netbox-community/netbox/issues/1099")</f>
         <v>https://github.com/netbox-community/netbox/issues/1099</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>795</v>
       </c>
@@ -17030,8 +17318,14 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/3401", "https://github.com/netbox-community/netbox/issues/3401")</f>
         <v>https://github.com/netbox-community/netbox/issues/3401</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>815</v>
+      </c>
+      <c r="H139" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>817</v>
       </c>
@@ -17048,8 +17342,14 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/7937", "https://github.com/netbox-community/netbox/issues/7937")</f>
         <v>https://github.com/netbox-community/netbox/issues/7937</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>815</v>
+      </c>
+      <c r="H140" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>818</v>
       </c>
@@ -17066,8 +17366,11 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/8232", "https://github.com/netbox-community/netbox/issues/8232")</f>
         <v>https://github.com/netbox-community/netbox/issues/8232</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>822</v>
       </c>
@@ -17084,8 +17387,11 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/9871", "https://github.com/netbox-community/netbox/issues/9871")</f>
         <v>https://github.com/netbox-community/netbox/issues/9871</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>823</v>
       </c>
@@ -17102,8 +17408,11 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/10445", "https://github.com/netbox-community/netbox/issues/10445")</f>
         <v>https://github.com/netbox-community/netbox/issues/10445</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>825</v>
       </c>
@@ -17120,8 +17429,11 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/11209", "https://github.com/netbox-community/netbox/issues/11209")</f>
         <v>https://github.com/netbox-community/netbox/issues/11209</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>827</v>
       </c>
@@ -17138,8 +17450,11 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/13183", "https://github.com/netbox-community/netbox/issues/13183")</f>
         <v>https://github.com/netbox-community/netbox/issues/13183</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>828</v>
       </c>
@@ -17156,8 +17471,11 @@
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/13458", "https://github.com/netbox-community/netbox/issues/13458")</f>
         <v>https://github.com/netbox-community/netbox/issues/13458</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>830</v>
       </c>
@@ -17173,6 +17491,9 @@
       <c r="E147" t="str">
         <f>HYPERLINK("https://github.com/netbox-community/netbox/issues/15390", "https://github.com/netbox-community/netbox/issues/15390")</f>
         <v>https://github.com/netbox-community/netbox/issues/15390</v>
+      </c>
+      <c r="F147" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -17186,7 +17507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17252,6 +17573,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_stripe.py", "https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_stripe.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_stripe.py</v>
       </c>
+      <c r="F3" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -17270,6 +17594,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_stripe.py", "https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_stripe.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_stripe.py</v>
       </c>
+      <c r="F4" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -17288,6 +17615,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_remote_billing.py", "https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_remote_billing.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/corporate/tests/test_remote_billing.py</v>
       </c>
+      <c r="F5" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -17306,6 +17636,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/web/src/ui_init.js", "https://github.com/zulip/zulip/tree/11.2/web/src/ui_init.js")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/web/src/ui_init.js</v>
       </c>
+      <c r="F6" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -17324,6 +17657,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zilencer/views.py", "https://github.com/zulip/zulip/tree/11.2/zilencer/views.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zilencer/views.py</v>
       </c>
+      <c r="F7" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -17342,6 +17678,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/tests/test_message_edit_notifications.py", "https://github.com/zulip/zulip/tree/11.2/zerver/tests/test_message_edit_notifications.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/tests/test_message_edit_notifications.py</v>
       </c>
+      <c r="F8" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -17360,6 +17699,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/tornado/event_queue.py", "https://github.com/zulip/zulip/tree/11.2/zerver/tornado/event_queue.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/tornado/event_queue.py</v>
       </c>
+      <c r="F9" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -17378,6 +17720,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/actions/realm_linkifiers.py", "https://github.com/zulip/zulip/tree/11.2/zerver/actions/realm_linkifiers.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/actions/realm_linkifiers.py</v>
       </c>
+      <c r="F10" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -17396,6 +17741,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/actions/streams.py", "https://github.com/zulip/zulip/tree/11.2/zerver/actions/streams.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/actions/streams.py</v>
       </c>
+      <c r="F11" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -17414,6 +17762,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/lib/streams.py", "https://github.com/zulip/zulip/tree/11.2/zerver/lib/streams.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/lib/streams.py</v>
       </c>
+      <c r="F12" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -17432,6 +17783,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/lib/narrow.py", "https://github.com/zulip/zulip/tree/11.2/zerver/lib/narrow.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/lib/narrow.py</v>
       </c>
+      <c r="F13" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -17450,6 +17804,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/lib/message.py", "https://github.com/zulip/zulip/tree/11.2/zerver/lib/message.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/lib/message.py</v>
       </c>
+      <c r="F14" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -17468,6 +17825,9 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/lib/message.py", "https://github.com/zulip/zulip/tree/11.2/zerver/lib/message.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/lib/message.py</v>
       </c>
+      <c r="F15" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -17486,8 +17846,11 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/lib/attachments.py", "https://github.com/zulip/zulip/tree/11.2/zerver/lib/attachments.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/lib/attachments.py</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>103</v>
       </c>
@@ -17504,8 +17867,11 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/lib/soft_deactivation.py", "https://github.com/zulip/zulip/tree/11.2/zerver/lib/soft_deactivation.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/lib/soft_deactivation.py</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>107</v>
       </c>
@@ -17522,8 +17888,14 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/webhooks/stripe/view.py", "https://github.com/zulip/zulip/tree/11.2/zerver/webhooks/stripe/view.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/webhooks/stripe/view.py</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>921</v>
+      </c>
+      <c r="H18" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>108</v>
       </c>
@@ -17540,8 +17912,11 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zerver/webhooks/stripe/tests.py", "https://github.com/zulip/zulip/tree/11.2/zerver/webhooks/stripe/tests.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zerver/webhooks/stripe/tests.py</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>118</v>
       </c>
@@ -17558,8 +17933,11 @@
         <f>HYPERLINK("https://github.com/zulip/zulip/tree/11.2/zproject/backends.py", "https://github.com/zulip/zulip/tree/11.2/zproject/backends.py")</f>
         <v>https://github.com/zulip/zulip/tree/11.2/zproject/backends.py</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>127</v>
       </c>
@@ -17576,8 +17954,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/tree/3.21.19/saleor/tax/tests/test_checkout_calculations.py", "https://github.com/saleor/saleor/tree/3.21.19/saleor/tax/tests/test_checkout_calculations.py")</f>
         <v>https://github.com/saleor/saleor/tree/3.21.19/saleor/tax/tests/test_checkout_calculations.py</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>128</v>
       </c>
@@ -17594,8 +17975,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/tree/3.21.19/saleor/tax/calculations/__init__.py", "https://github.com/saleor/saleor/tree/3.21.19/saleor/tax/calculations/__init__.py")</f>
         <v>https://github.com/saleor/saleor/tree/3.21.19/saleor/tax/calculations/__init__.py</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>129</v>
       </c>
@@ -17612,8 +17996,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/tree/3.21.19/saleor/discount/tests/test_rounding_issue.py", "https://github.com/saleor/saleor/tree/3.21.19/saleor/discount/tests/test_rounding_issue.py")</f>
         <v>https://github.com/saleor/saleor/tree/3.21.19/saleor/discount/tests/test_rounding_issue.py</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>130</v>
       </c>
@@ -17630,8 +18017,11 @@
         <f>HYPERLINK("https://github.com/saleor/saleor/tree/3.21.19/saleor/graphql/core/connection.py", "https://github.com/saleor/saleor/tree/3.21.19/saleor/graphql/core/connection.py")</f>
         <v>https://github.com/saleor/saleor/tree/3.21.19/saleor/graphql/core/connection.py</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>133</v>
       </c>
@@ -17649,7 +18039,7 @@
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/docs/release-notes/version-3.5.md</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>135</v>
       </c>
@@ -17667,7 +18057,7 @@
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/docs/release-notes/version-4.1.md</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>136</v>
       </c>
@@ -17685,7 +18075,7 @@
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/docs/release-notes/version-3.3.md</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>137</v>
       </c>
@@ -17703,7 +18093,7 @@
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/docs/release-notes/version-3.7.md</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>140</v>
       </c>
@@ -17720,8 +18110,11 @@
         <f t="shared" ref="E29:E34" si="0">HYPERLINK("https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js", "https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js")</f>
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>154</v>
       </c>
@@ -17738,8 +18131,11 @@
         <f t="shared" si="0"/>
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>155</v>
       </c>
@@ -17756,8 +18152,11 @@
         <f t="shared" si="0"/>
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>158</v>
       </c>
@@ -17774,8 +18173,11 @@
         <f t="shared" si="0"/>
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>159</v>
       </c>
@@ -17792,8 +18194,11 @@
         <f t="shared" si="0"/>
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>160</v>
       </c>
@@ -17809,6 +18214,9 @@
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>https://github.com/netbox-community/netbox/tree/v4.4.1/netbox/project-static/dist/graphiql/graphiql.min.js</v>
+      </c>
+      <c r="F34" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/processing_pipeline/analysis/analyzed_matches/second_iteration.xlsx
+++ b/processing_pipeline/analysis/analyzed_matches/second_iteration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danarapp/Desktop/energypattern-keyword-search/processing_pipeline/analysis/analyzed_matches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FAC503-F9C0-6A46-94FC-356BDFAA55B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECE8D7-E512-6F4D-9A82-F6BF3B1315C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="git_datatransfer" sheetId="1" r:id="rId1"/>
@@ -3255,11 +3255,15 @@
   <dimension ref="A1:H438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E369" sqref="E369"/>
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G329" sqref="G329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -9532,7 +9536,7 @@
       <c r="F324" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="3" t="s">
         <v>877</v>
       </c>
       <c r="H324" s="5" t="s">
@@ -9655,7 +9659,7 @@
       <c r="F329" t="s">
         <v>840</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G329" s="3" t="s">
         <v>880</v>
       </c>
       <c r="H329" s="5" t="s">
@@ -11855,6 +11859,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="https://github.com/zulip/zulip/pull/392/commits" xr:uid="{6D8A2F68-A6A6-F143-A171-4B5EB6E6150E}"/>
+    <hyperlink ref="G324" r:id="rId2" xr:uid="{E8758980-7A8B-884F-9757-122373199F87}"/>
+    <hyperlink ref="G329" r:id="rId3" xr:uid="{DF2D5FFD-C622-154E-866E-6027A6058C8D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11865,8 +11871,8 @@
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13618,6 +13624,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="92.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14319,6 +14326,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="110.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -14538,12 +14548,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -17505,12 +17518,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="88.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
